--- a/biology/Médecine/Massachusetts_General_Hospital/Massachusetts_General_Hospital.xlsx
+++ b/biology/Médecine/Massachusetts_General_Hospital/Massachusetts_General_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Massachusetts General Hospital (ou Mass General ou MGH) est le premier et plus grand hôpital rattaché à la faculté de médecine de Harvard à Boston dans le Massachusetts. 
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le langage de programmation MUMPS y fut développé par Neil Pappalardo dans le laboratoire vétérinaire du Dr Octo Barnett entre 1966 et 1967.
 </t>
@@ -544,7 +558,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>John Collins Warren, membre fondateur.
 Henry Viets, neurologue.
